--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Rarres2</t>
+  </si>
+  <si>
+    <t>Ccrl2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rarres2</t>
-  </si>
-  <si>
-    <t>Ccrl2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H2">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I2">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J2">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.624213</v>
+        <v>3.373155666666667</v>
       </c>
       <c r="N2">
-        <v>4.872638999999999</v>
+        <v>10.119467</v>
       </c>
       <c r="O2">
-        <v>0.01443505185764056</v>
+        <v>0.03263881027773249</v>
       </c>
       <c r="P2">
-        <v>0.01457164449518757</v>
+        <v>0.03275129872373959</v>
       </c>
       <c r="Q2">
-        <v>3.298427938609334</v>
+        <v>1.791301948545889</v>
       </c>
       <c r="R2">
-        <v>29.685851447484</v>
+        <v>16.121717536913</v>
       </c>
       <c r="S2">
-        <v>0.0003996226309805321</v>
+        <v>0.0003943761935908923</v>
       </c>
       <c r="T2">
-        <v>0.0004714941579689599</v>
+        <v>0.0004066575366809064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H3">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I3">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J3">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.222072</v>
       </c>
       <c r="O3">
-        <v>0.006582823917678097</v>
+        <v>0.007166957156089505</v>
       </c>
       <c r="P3">
-        <v>0.006645114326489289</v>
+        <v>0.007191657807437632</v>
       </c>
       <c r="Q3">
-        <v>1.504183742403556</v>
+        <v>0.3933410626675556</v>
       </c>
       <c r="R3">
-        <v>13.537653681632</v>
+        <v>3.540069564008</v>
       </c>
       <c r="S3">
-        <v>0.0001822401082592355</v>
+        <v>8.659866149520535E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002150157166550616</v>
+        <v>8.929544667200503E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H4">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I4">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J4">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.835037</v>
+        <v>47.16807033333333</v>
       </c>
       <c r="N4">
-        <v>167.505111</v>
+        <v>141.504211</v>
       </c>
       <c r="O4">
-        <v>0.4962290380438278</v>
+        <v>0.4564004306085713</v>
       </c>
       <c r="P4">
-        <v>0.5009246382953741</v>
+        <v>0.4579733977222395</v>
       </c>
       <c r="Q4">
-        <v>113.388974225724</v>
+        <v>25.04843080092545</v>
       </c>
       <c r="R4">
-        <v>1020.500768031516</v>
+        <v>225.435877208329</v>
       </c>
       <c r="S4">
-        <v>0.01373769597142453</v>
+        <v>0.005514706665011356</v>
       </c>
       <c r="T4">
-        <v>0.01620839985610306</v>
+        <v>0.005686441180670405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,55 +717,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H5">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I5">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J5">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>3.164205</v>
+        <v>1.064885</v>
       </c>
       <c r="N5">
-        <v>6.32841</v>
+        <v>2.12977</v>
       </c>
       <c r="O5">
-        <v>0.02812159689843977</v>
+        <v>0.01030387652312217</v>
       </c>
       <c r="P5">
-        <v>0.01892513291868944</v>
+        <v>0.006892925633618734</v>
       </c>
       <c r="Q5">
-        <v>6.425821105660001</v>
+        <v>0.5655032746716668</v>
       </c>
       <c r="R5">
-        <v>38.55492663396</v>
+        <v>3.393019648030001</v>
       </c>
       <c r="S5">
-        <v>0.0007785234615544602</v>
+        <v>0.0001245021974710834</v>
       </c>
       <c r="T5">
-        <v>0.0006123598206705537</v>
+        <v>8.558622918547922E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,25 +779,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H6">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I6">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J6">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.15453566666667</v>
+        <v>51.00119533333333</v>
       </c>
       <c r="N6">
-        <v>153.463607</v>
+        <v>153.003586</v>
       </c>
       <c r="O6">
-        <v>0.4546314892824138</v>
+        <v>0.4934899254344846</v>
       </c>
       <c r="P6">
-        <v>0.4589334699642595</v>
+        <v>0.4951907201129645</v>
       </c>
       <c r="Q6">
-        <v>103.8838807653436</v>
+        <v>27.08399777738378</v>
       </c>
       <c r="R6">
-        <v>934.954926888092</v>
+        <v>243.755979996454</v>
       </c>
       <c r="S6">
-        <v>0.01258610177957004</v>
+        <v>0.005962860677586748</v>
       </c>
       <c r="T6">
-        <v>0.01484969318706853</v>
+        <v>0.006148551241493766</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>118.481473</v>
       </c>
       <c r="I7">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J7">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.624213</v>
+        <v>3.373155666666667</v>
       </c>
       <c r="N7">
-        <v>4.872638999999999</v>
+        <v>10.119467</v>
       </c>
       <c r="O7">
-        <v>0.01443505185764056</v>
+        <v>0.03263881027773249</v>
       </c>
       <c r="P7">
-        <v>0.01457164449518757</v>
+        <v>0.03275129872373959</v>
       </c>
       <c r="Q7">
-        <v>64.14638290191634</v>
+        <v>133.2188173483212</v>
       </c>
       <c r="R7">
-        <v>577.317446117247</v>
+        <v>1198.969356134891</v>
       </c>
       <c r="S7">
-        <v>0.007771686021419114</v>
+        <v>0.02932968958313247</v>
       </c>
       <c r="T7">
-        <v>0.0091694120217297</v>
+        <v>0.03024305095318445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>118.481473</v>
       </c>
       <c r="I8">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J8">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.222072</v>
       </c>
       <c r="O8">
-        <v>0.006582823917678097</v>
+        <v>0.007166957156089505</v>
       </c>
       <c r="P8">
-        <v>0.006645114326489289</v>
+        <v>0.007191657807437632</v>
       </c>
       <c r="Q8">
         <v>29.25270707467289</v>
@@ -948,10 +948,10 @@
         <v>263.274363672056</v>
       </c>
       <c r="S8">
-        <v>0.003544125863004999</v>
+        <v>0.006440327538137169</v>
       </c>
       <c r="T8">
-        <v>0.004181531549936074</v>
+        <v>0.006640886987194529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>118.481473</v>
       </c>
       <c r="I9">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J9">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.835037</v>
+        <v>47.16807033333333</v>
       </c>
       <c r="N9">
-        <v>167.505111</v>
+        <v>141.504211</v>
       </c>
       <c r="O9">
-        <v>0.4962290380438278</v>
+        <v>0.4564004306085713</v>
       </c>
       <c r="P9">
-        <v>0.5009246382953741</v>
+        <v>0.4579733977222395</v>
       </c>
       <c r="Q9">
-        <v>2205.139142923167</v>
+        <v>1862.847483886978</v>
       </c>
       <c r="R9">
-        <v>19846.2522863085</v>
+        <v>16765.6273549828</v>
       </c>
       <c r="S9">
-        <v>0.2671646985699037</v>
+        <v>0.4101277847278003</v>
       </c>
       <c r="T9">
-        <v>0.3152138663472849</v>
+        <v>0.4228996510748207</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,40 +1042,40 @@
         <v>118.481473</v>
       </c>
       <c r="I10">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J10">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>3.164205</v>
+        <v>1.064885</v>
       </c>
       <c r="N10">
-        <v>6.32841</v>
+        <v>2.12977</v>
       </c>
       <c r="O10">
-        <v>0.02812159689843977</v>
+        <v>0.01030387652312217</v>
       </c>
       <c r="P10">
-        <v>0.01892513291868944</v>
+        <v>0.006892925633618734</v>
       </c>
       <c r="Q10">
-        <v>124.966556424655</v>
+        <v>42.05638112520167</v>
       </c>
       <c r="R10">
-        <v>749.79933854793</v>
+        <v>252.33828675121</v>
       </c>
       <c r="S10">
-        <v>0.01514038353799931</v>
+        <v>0.009259206979498235</v>
       </c>
       <c r="T10">
-        <v>0.0119089057761994</v>
+        <v>0.006365033121661806</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>118.481473</v>
       </c>
       <c r="I11">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J11">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.15453566666667</v>
+        <v>51.00119533333333</v>
       </c>
       <c r="N11">
-        <v>153.463607</v>
+        <v>153.003586</v>
       </c>
       <c r="O11">
-        <v>0.4546314892824138</v>
+        <v>0.4934899254344846</v>
       </c>
       <c r="P11">
-        <v>0.4589334699642595</v>
+        <v>0.4951907201129645</v>
       </c>
       <c r="Q11">
-        <v>2020.288245472568</v>
+        <v>2014.232249284686</v>
       </c>
       <c r="R11">
-        <v>18182.59420925311</v>
+        <v>18128.09024356218</v>
       </c>
       <c r="S11">
-        <v>0.2447689987537465</v>
+        <v>0.4434569214451821</v>
       </c>
       <c r="T11">
-        <v>0.2887903337234304</v>
+        <v>0.4572666966963713</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H12">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I12">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J12">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.624213</v>
+        <v>3.373155666666667</v>
       </c>
       <c r="N12">
-        <v>4.872638999999999</v>
+        <v>10.119467</v>
       </c>
       <c r="O12">
-        <v>0.01443505185764056</v>
+        <v>0.03263881027773249</v>
       </c>
       <c r="P12">
-        <v>0.01457164449518757</v>
+        <v>0.03275129872373959</v>
       </c>
       <c r="Q12">
-        <v>0.08170278653899998</v>
+        <v>11.94517738511633</v>
       </c>
       <c r="R12">
-        <v>0.7353250788509998</v>
+        <v>71.671064310698</v>
       </c>
       <c r="S12">
-        <v>9.898740588803593E-06</v>
+        <v>0.002629871302676979</v>
       </c>
       <c r="T12">
-        <v>1.167901414246603E-05</v>
+        <v>0.001807845745786965</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H13">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I13">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J13">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.222072</v>
       </c>
       <c r="O13">
-        <v>0.006582823917678097</v>
+        <v>0.007166957156089505</v>
       </c>
       <c r="P13">
-        <v>0.006645114326489289</v>
+        <v>0.007191657807437632</v>
       </c>
       <c r="Q13">
-        <v>0.03725896260533332</v>
+        <v>2.622968601261333</v>
       </c>
       <c r="R13">
-        <v>0.3353306634479999</v>
+        <v>15.737811607568</v>
       </c>
       <c r="S13">
-        <v>4.514127621119475E-06</v>
+        <v>0.0005774773894002559</v>
       </c>
       <c r="T13">
-        <v>5.32598666011945E-06</v>
+        <v>0.0003969738141378722</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H14">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I14">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J14">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.835037</v>
+        <v>47.16807033333333</v>
       </c>
       <c r="N14">
-        <v>167.505111</v>
+        <v>141.504211</v>
       </c>
       <c r="O14">
-        <v>0.4962290380438278</v>
+        <v>0.4564004306085713</v>
       </c>
       <c r="P14">
-        <v>0.5009246382953741</v>
+        <v>0.4579733977222395</v>
       </c>
       <c r="Q14">
-        <v>2.808669866210999</v>
+        <v>167.0337875637057</v>
       </c>
       <c r="R14">
-        <v>25.278028795899</v>
+        <v>1002.202725382234</v>
       </c>
       <c r="S14">
-        <v>0.0003402857550267424</v>
+        <v>0.03677445301386408</v>
       </c>
       <c r="T14">
-        <v>0.0004014856344384105</v>
+        <v>0.02527976877312718</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,55 +1337,55 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H15">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I15">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J15">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>3.164205</v>
+        <v>1.064885</v>
       </c>
       <c r="N15">
-        <v>6.32841</v>
+        <v>2.12977</v>
       </c>
       <c r="O15">
-        <v>0.02812159689843977</v>
+        <v>0.01030387652312217</v>
       </c>
       <c r="P15">
-        <v>0.01892513291868944</v>
+        <v>0.006892925633618734</v>
       </c>
       <c r="Q15">
-        <v>0.159169004115</v>
+        <v>3.771020811595001</v>
       </c>
       <c r="R15">
-        <v>0.9550140246899999</v>
+        <v>15.08408324638</v>
       </c>
       <c r="S15">
-        <v>1.928419761742781E-05</v>
+        <v>0.0008302345871036019</v>
       </c>
       <c r="T15">
-        <v>1.516828763413901E-05</v>
+        <v>0.0003804840347821386</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H16">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I16">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J16">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>51.15453566666667</v>
+        <v>51.00119533333333</v>
       </c>
       <c r="N16">
-        <v>153.463607</v>
+        <v>153.003586</v>
       </c>
       <c r="O16">
-        <v>0.4546314892824138</v>
+        <v>0.4934899254344846</v>
       </c>
       <c r="P16">
-        <v>0.4589334699642595</v>
+        <v>0.4951907201129645</v>
       </c>
       <c r="Q16">
-        <v>2.573226607640333</v>
+        <v>180.6078299705807</v>
       </c>
       <c r="R16">
-        <v>23.159039468763</v>
+        <v>1083.646979823484</v>
       </c>
       <c r="S16">
-        <v>0.0003117605132485914</v>
+        <v>0.03976293811008714</v>
       </c>
       <c r="T16">
-        <v>0.0003678301709826747</v>
+        <v>0.02733413548759534</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H17">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I17">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J17">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.624213</v>
+        <v>3.373155666666667</v>
       </c>
       <c r="N17">
-        <v>4.872638999999999</v>
+        <v>10.119467</v>
       </c>
       <c r="O17">
-        <v>0.01443505185764056</v>
+        <v>0.03263881027773249</v>
       </c>
       <c r="P17">
-        <v>0.01457164449518757</v>
+        <v>0.03275129872373959</v>
       </c>
       <c r="Q17">
-        <v>51.6183361670795</v>
+        <v>1.293926772340222</v>
       </c>
       <c r="R17">
-        <v>309.7100170024769</v>
+        <v>11.645340951062</v>
       </c>
       <c r="S17">
-        <v>0.006253844464652113</v>
+        <v>0.0002848731983321534</v>
       </c>
       <c r="T17">
-        <v>0.004919059301346449</v>
+        <v>0.0002937444880872752</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H18">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I18">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J18">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.222072</v>
       </c>
       <c r="O18">
-        <v>0.006582823917678097</v>
+        <v>0.007166957156089505</v>
       </c>
       <c r="P18">
-        <v>0.006645114326489289</v>
+        <v>0.007191657807437632</v>
       </c>
       <c r="Q18">
-        <v>23.53953565684933</v>
+        <v>0.2841254831768888</v>
       </c>
       <c r="R18">
-        <v>141.237213941096</v>
+        <v>2.557129348592</v>
       </c>
       <c r="S18">
-        <v>0.002851943818792742</v>
+        <v>6.255356705687412E-05</v>
       </c>
       <c r="T18">
-        <v>0.002243241073238036</v>
+        <v>6.450155943322584E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H19">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I19">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J19">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.835037</v>
+        <v>47.16807033333333</v>
       </c>
       <c r="N19">
-        <v>167.505111</v>
+        <v>141.504211</v>
       </c>
       <c r="O19">
-        <v>0.4962290380438278</v>
+        <v>0.4564004306085713</v>
       </c>
       <c r="P19">
-        <v>0.5009246382953741</v>
+        <v>0.4579733977222395</v>
       </c>
       <c r="Q19">
-        <v>1774.466593831796</v>
+        <v>18.09345166220511</v>
       </c>
       <c r="R19">
-        <v>10646.79956299077</v>
+        <v>162.841064959846</v>
       </c>
       <c r="S19">
-        <v>0.2149863577474727</v>
+        <v>0.003983486201895602</v>
       </c>
       <c r="T19">
-        <v>0.1691008864575479</v>
+        <v>0.004107536693621193</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,55 +1647,55 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H20">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I20">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J20">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>3.164205</v>
+        <v>1.064885</v>
       </c>
       <c r="N20">
-        <v>6.32841</v>
+        <v>2.12977</v>
       </c>
       <c r="O20">
-        <v>0.02812159689843977</v>
+        <v>0.01030387652312217</v>
       </c>
       <c r="P20">
-        <v>0.01892513291868944</v>
+        <v>0.006892925633618734</v>
       </c>
       <c r="Q20">
-        <v>100.5600850329075</v>
+        <v>0.4084849165366667</v>
       </c>
       <c r="R20">
-        <v>402.24034013163</v>
+        <v>2.45090949922</v>
       </c>
       <c r="S20">
-        <v>0.01218340570126858</v>
+        <v>8.993275904924692E-05</v>
       </c>
       <c r="T20">
-        <v>0.006388699034185354</v>
+        <v>6.182224798930972E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H21">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I21">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J21">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>51.15453566666667</v>
+        <v>51.00119533333333</v>
       </c>
       <c r="N21">
-        <v>153.463607</v>
+        <v>153.003586</v>
       </c>
       <c r="O21">
-        <v>0.4546314892824138</v>
+        <v>0.4934899254344846</v>
       </c>
       <c r="P21">
-        <v>0.4589334699642595</v>
+        <v>0.4951907201129645</v>
       </c>
       <c r="Q21">
-        <v>1625.717820577017</v>
+        <v>19.56382052428844</v>
       </c>
       <c r="R21">
-        <v>9754.3069234621</v>
+        <v>176.074384718596</v>
       </c>
       <c r="S21">
-        <v>0.1969646282358486</v>
+        <v>0.004307205201628573</v>
       </c>
       <c r="T21">
-        <v>0.1549256128827779</v>
+        <v>0.004441336687504132</v>
       </c>
     </row>
   </sheetData>
